--- a/biology/Zoologie/Filograna_implexa/Filograna_implexa.xlsx
+++ b/biology/Zoologie/Filograna_implexa/Filograna_implexa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Filograna implexa est une espèce de vers tubicoles, marins, polychètes de la famille des Serpulidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente dans les eaux de la mer Méditerranée, de la Manche, de la mer du Nord, dans le golfe du Mexique et au large du Mozambique, de l'Afrique du Sud et la Nouvelle-Zélande[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans les eaux de la mer Méditerranée, de la Manche, de la mer du Nord, dans le golfe du Mexique et au large du Mozambique, de l'Afrique du Sud et la Nouvelle-Zélande.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Berkeley, 1835 : Observations upon the Dentalium subulatum of Deshayes. The Zoological Journal, vol. 5, pp. 424-427 (texte intégral) (en).</t>
         </is>
